--- a/Code/Results/Cases/Case_0_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9147781369476474</v>
+        <v>1.038164951147029</v>
       </c>
       <c r="D2">
-        <v>0.9241872808703786</v>
+        <v>1.040809318403496</v>
       </c>
       <c r="E2">
-        <v>0.9315390486989115</v>
+        <v>1.044820413392423</v>
       </c>
       <c r="F2">
-        <v>0.9174762599459931</v>
+        <v>1.050930401740804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027552838777055</v>
+        <v>1.026109458634859</v>
       </c>
       <c r="J2">
-        <v>0.9398452018126831</v>
+        <v>1.043263872156114</v>
       </c>
       <c r="K2">
-        <v>0.9368146164333708</v>
+        <v>1.043590614427709</v>
       </c>
       <c r="L2">
-        <v>0.9440423980108805</v>
+        <v>1.047590388517168</v>
       </c>
       <c r="M2">
-        <v>0.930219020853425</v>
+        <v>1.053683312125302</v>
       </c>
       <c r="N2">
-        <v>0.9836280257771924</v>
+        <v>1.018228144688219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9344435877294044</v>
+        <v>1.040627658789585</v>
       </c>
       <c r="D3">
-        <v>0.9428937019243349</v>
+        <v>1.043186676703034</v>
       </c>
       <c r="E3">
-        <v>0.9500902828667404</v>
+        <v>1.047083830186833</v>
       </c>
       <c r="F3">
-        <v>0.9403958663118543</v>
+        <v>1.053488880866137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03271377827727</v>
+        <v>1.02637992601388</v>
       </c>
       <c r="J3">
-        <v>0.9568962427247704</v>
+        <v>1.045363680007396</v>
       </c>
       <c r="K3">
-        <v>0.9543134616417643</v>
+        <v>1.045774358955608</v>
       </c>
       <c r="L3">
-        <v>0.9614042751224525</v>
+        <v>1.049661339990159</v>
       </c>
       <c r="M3">
-        <v>0.951852817853753</v>
+        <v>1.056049848430944</v>
       </c>
       <c r="N3">
-        <v>0.9893274860652063</v>
+        <v>1.018927408508906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9458421269084673</v>
+        <v>1.042203379657983</v>
       </c>
       <c r="D4">
-        <v>0.9537360848456733</v>
+        <v>1.044707622238164</v>
       </c>
       <c r="E4">
-        <v>0.9608053412781026</v>
+        <v>1.048529366801978</v>
       </c>
       <c r="F4">
-        <v>0.95352779616559</v>
+        <v>1.055116559133274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035615459093413</v>
+        <v>1.026543888854601</v>
       </c>
       <c r="J4">
-        <v>0.9667405388747277</v>
+        <v>1.046704720390504</v>
       </c>
       <c r="K4">
-        <v>0.9644269205512205</v>
+        <v>1.047169763879089</v>
       </c>
       <c r="L4">
-        <v>0.9714010198052196</v>
+        <v>1.050982053555573</v>
       </c>
       <c r="M4">
-        <v>0.9642214625097483</v>
+        <v>1.057553122242829</v>
       </c>
       <c r="N4">
-        <v>0.9926190315583606</v>
+        <v>1.019373846371572</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9503789684743179</v>
+        <v>1.042861638184914</v>
       </c>
       <c r="D5">
-        <v>0.9580515363160175</v>
+        <v>1.045342957738133</v>
       </c>
       <c r="E5">
-        <v>0.9650621954128846</v>
+        <v>1.049132598382612</v>
       </c>
       <c r="F5">
-        <v>0.9587225505933467</v>
+        <v>1.05579428485791</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036749508422076</v>
+        <v>1.026610191799708</v>
       </c>
       <c r="J5">
-        <v>0.9706504012656904</v>
+        <v>1.04726434375271</v>
       </c>
       <c r="K5">
-        <v>0.9684459829179154</v>
+        <v>1.047752256254797</v>
       </c>
       <c r="L5">
-        <v>0.9753656953912427</v>
+        <v>1.051532737615271</v>
       </c>
       <c r="M5">
-        <v>0.9691082202750566</v>
+        <v>1.058178494436439</v>
       </c>
       <c r="N5">
-        <v>0.9939264648398292</v>
+        <v>1.019560112016507</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9511271698799814</v>
+        <v>1.042971920458508</v>
       </c>
       <c r="D6">
-        <v>0.9587632254360385</v>
+        <v>1.045449397162436</v>
       </c>
       <c r="E6">
-        <v>0.9657637777432911</v>
+        <v>1.049233623853265</v>
       </c>
       <c r="F6">
-        <v>0.9595774711900489</v>
+        <v>1.055907697043013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036935314237308</v>
+        <v>1.02662117079665</v>
       </c>
       <c r="J6">
-        <v>0.9712947322043669</v>
+        <v>1.047358065927589</v>
       </c>
       <c r="K6">
-        <v>0.9691084392216541</v>
+        <v>1.047849819117854</v>
       </c>
       <c r="L6">
-        <v>0.9760187380493531</v>
+        <v>1.051624935804155</v>
       </c>
       <c r="M6">
-        <v>0.9699121027311507</v>
+        <v>1.058283112931762</v>
       </c>
       <c r="N6">
-        <v>0.9941419299953793</v>
+        <v>1.019591304529406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9459036848912439</v>
+        <v>1.042212191625282</v>
       </c>
       <c r="D7">
-        <v>0.9537946389996713</v>
+        <v>1.044716127500807</v>
       </c>
       <c r="E7">
-        <v>0.9608631309907696</v>
+        <v>1.048537444669604</v>
       </c>
       <c r="F7">
-        <v>0.9535984043969427</v>
+        <v>1.055125640529438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035630929516238</v>
+        <v>1.026544785097209</v>
       </c>
       <c r="J7">
-        <v>0.9667936222064715</v>
+        <v>1.046712214305433</v>
       </c>
       <c r="K7">
-        <v>0.964481477523673</v>
+        <v>1.047177563312967</v>
       </c>
       <c r="L7">
-        <v>0.9714548695418976</v>
+        <v>1.050989429568031</v>
       </c>
       <c r="M7">
-        <v>0.9642879083819262</v>
+        <v>1.057561504306787</v>
       </c>
       <c r="N7">
-        <v>0.9926367818962621</v>
+        <v>1.019376340793643</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9217450474274818</v>
+        <v>1.039000979271745</v>
       </c>
       <c r="D8">
-        <v>0.9308145399838255</v>
+        <v>1.041616406692889</v>
       </c>
       <c r="E8">
-        <v>0.9381204882358635</v>
+        <v>1.045589343048241</v>
       </c>
       <c r="F8">
-        <v>0.9256337633605392</v>
+        <v>1.051800883005747</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029401751088484</v>
+        <v>1.026203162998321</v>
       </c>
       <c r="J8">
-        <v>0.9458953322788888</v>
+        <v>1.043977222142336</v>
       </c>
       <c r="K8">
-        <v>0.943021065583144</v>
+        <v>1.044332321518875</v>
       </c>
       <c r="L8">
-        <v>0.9502094498082164</v>
+        <v>1.048294330428125</v>
       </c>
       <c r="M8">
-        <v>0.9379251025071343</v>
+        <v>1.054488964790887</v>
       </c>
       <c r="N8">
-        <v>0.9856500244934945</v>
+        <v>1.018465730105606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8635889595172068</v>
+        <v>1.033201716605394</v>
       </c>
       <c r="D9">
-        <v>0.8754830843256842</v>
+        <v>1.036017226497309</v>
       </c>
       <c r="E9">
-        <v>0.8828666581168479</v>
+        <v>1.040244428151594</v>
       </c>
       <c r="F9">
-        <v>0.8562538235808521</v>
+        <v>1.045723803230082</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.013409892589427</v>
+        <v>1.025515695887886</v>
       </c>
       <c r="J9">
-        <v>0.8950858794248201</v>
+        <v>1.039018604891574</v>
       </c>
       <c r="K9">
-        <v>0.8909808990398461</v>
+        <v>1.039179748080983</v>
       </c>
       <c r="L9">
-        <v>0.898196640813975</v>
+        <v>1.043393221942395</v>
       </c>
       <c r="M9">
-        <v>0.8722070159082839</v>
+        <v>1.048854983608471</v>
       </c>
       <c r="N9">
-        <v>0.9686847835001813</v>
+        <v>1.016813628746163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7705569307006405</v>
+        <v>1.029234732089296</v>
       </c>
       <c r="D10">
-        <v>0.786749463463863</v>
+        <v>1.032186297733158</v>
       </c>
       <c r="E10">
-        <v>0.7925692380018157</v>
+        <v>1.036574271257841</v>
       </c>
       <c r="F10">
-        <v>0.7378319582113144</v>
+        <v>1.041517753722413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9857058027750684</v>
+        <v>1.024998575290955</v>
       </c>
       <c r="J10">
-        <v>0.8121509715178017</v>
+        <v>1.035613639160288</v>
       </c>
       <c r="K10">
-        <v>0.8064418457772584</v>
+        <v>1.035645577783842</v>
       </c>
       <c r="L10">
-        <v>0.8120630898649872</v>
+        <v>1.040017819282708</v>
       </c>
       <c r="M10">
-        <v>0.7593701080137888</v>
+        <v>1.044943753162269</v>
       </c>
       <c r="N10">
-        <v>0.9411109628323512</v>
+        <v>1.015678415063755</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7705569307006405</v>
+        <v>1.02749160917659</v>
       </c>
       <c r="D11">
-        <v>0.786749463463863</v>
+        <v>1.030502774839629</v>
       </c>
       <c r="E11">
-        <v>0.7925692380018157</v>
+        <v>1.034958273568809</v>
       </c>
       <c r="F11">
-        <v>0.7378319582113144</v>
+        <v>1.039657949519038</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9857058027750684</v>
+        <v>1.024760377813686</v>
       </c>
       <c r="J11">
-        <v>0.8121509715178017</v>
+        <v>1.034114388838487</v>
       </c>
       <c r="K11">
-        <v>0.8064418457772584</v>
+        <v>1.034090377877333</v>
       </c>
       <c r="L11">
-        <v>0.8120630898649872</v>
+        <v>1.038529243278389</v>
       </c>
       <c r="M11">
-        <v>0.7593701080137888</v>
+        <v>1.04321154520811</v>
       </c>
       <c r="N11">
-        <v>0.9411109628323512</v>
+        <v>1.015178390343789</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7705569307006405</v>
+        <v>1.026840189214692</v>
       </c>
       <c r="D12">
-        <v>0.786749463463863</v>
+        <v>1.029873600928168</v>
       </c>
       <c r="E12">
-        <v>0.7925692380018157</v>
+        <v>1.034353865616074</v>
       </c>
       <c r="F12">
-        <v>0.7378319582113144</v>
+        <v>1.038961174984526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9857058027750684</v>
+        <v>1.024669724432423</v>
       </c>
       <c r="J12">
-        <v>0.8121509715178017</v>
+        <v>1.033553643278792</v>
       </c>
       <c r="K12">
-        <v>0.8064418457772584</v>
+        <v>1.033508847369891</v>
       </c>
       <c r="L12">
-        <v>0.8120630898649872</v>
+        <v>1.037972138843503</v>
       </c>
       <c r="M12">
-        <v>0.7593701080137888</v>
+        <v>1.04256216273913</v>
       </c>
       <c r="N12">
-        <v>0.9411109628323512</v>
+        <v>1.014991346401676</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7705569307006405</v>
+        <v>1.026980101776533</v>
       </c>
       <c r="D13">
-        <v>0.786749463463863</v>
+        <v>1.03000873667378</v>
       </c>
       <c r="E13">
-        <v>0.7925692380018157</v>
+        <v>1.034483703308304</v>
       </c>
       <c r="F13">
-        <v>0.7378319582113144</v>
+        <v>1.039110907997642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9857058027750684</v>
+        <v>1.024689268885132</v>
       </c>
       <c r="J13">
-        <v>0.8121509715178017</v>
+        <v>1.033674101638095</v>
       </c>
       <c r="K13">
-        <v>0.8064418457772584</v>
+        <v>1.033633764334813</v>
       </c>
       <c r="L13">
-        <v>0.8120630898649872</v>
+        <v>1.038091830893908</v>
       </c>
       <c r="M13">
-        <v>0.7593701080137888</v>
+        <v>1.042701730015849</v>
       </c>
       <c r="N13">
-        <v>0.9411109628323512</v>
+        <v>1.015031528019291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7705569307006405</v>
+        <v>1.02743784389065</v>
       </c>
       <c r="D14">
-        <v>0.786749463463863</v>
+        <v>1.030450846188991</v>
       </c>
       <c r="E14">
-        <v>0.7925692380018157</v>
+        <v>1.03490839853643</v>
       </c>
       <c r="F14">
-        <v>0.7378319582113144</v>
+        <v>1.039600476511609</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9857058027750684</v>
+        <v>1.024752928956501</v>
       </c>
       <c r="J14">
-        <v>0.8121509715178017</v>
+        <v>1.034068116835472</v>
       </c>
       <c r="K14">
-        <v>0.8064418457772584</v>
+        <v>1.034042387854416</v>
       </c>
       <c r="L14">
-        <v>0.8120630898649872</v>
+        <v>1.038483278883165</v>
       </c>
       <c r="M14">
-        <v>0.7593701080137888</v>
+        <v>1.043157989663534</v>
       </c>
       <c r="N14">
-        <v>0.9411109628323512</v>
+        <v>1.015162956246298</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7705569307006405</v>
+        <v>1.027719346923633</v>
       </c>
       <c r="D15">
-        <v>0.786749463463863</v>
+        <v>1.030722731910796</v>
       </c>
       <c r="E15">
-        <v>0.7925692380018157</v>
+        <v>1.035169512818985</v>
       </c>
       <c r="F15">
-        <v>0.7378319582113144</v>
+        <v>1.039901320851213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9857058027750684</v>
+        <v>1.024791862702125</v>
       </c>
       <c r="J15">
-        <v>0.8121509715178017</v>
+        <v>1.034310367803809</v>
       </c>
       <c r="K15">
-        <v>0.8064418457772584</v>
+        <v>1.034293639053373</v>
       </c>
       <c r="L15">
-        <v>0.8120630898649872</v>
+        <v>1.038723905070373</v>
       </c>
       <c r="M15">
-        <v>0.7593701080137888</v>
+        <v>1.043438311130418</v>
       </c>
       <c r="N15">
-        <v>0.9411109628323512</v>
+        <v>1.015243758366163</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7705569307006405</v>
+        <v>1.029349871335767</v>
       </c>
       <c r="D16">
-        <v>0.786749463463863</v>
+        <v>1.032297496397267</v>
       </c>
       <c r="E16">
-        <v>0.7925692380018157</v>
+        <v>1.036680944304857</v>
       </c>
       <c r="F16">
-        <v>0.7378319582113144</v>
+        <v>1.041640356330642</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9857058027750684</v>
+        <v>1.025014080218598</v>
       </c>
       <c r="J16">
-        <v>0.8121509715178017</v>
+        <v>1.035712605240249</v>
       </c>
       <c r="K16">
-        <v>0.8064418457772584</v>
+        <v>1.035748256791886</v>
       </c>
       <c r="L16">
-        <v>0.8120630898649872</v>
+        <v>1.040116031778787</v>
       </c>
       <c r="M16">
-        <v>0.7593701080137888</v>
+        <v>1.045057886864113</v>
       </c>
       <c r="N16">
-        <v>0.9411109628323512</v>
+        <v>1.015711418237912</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7705569307006405</v>
+        <v>1.030365766979445</v>
       </c>
       <c r="D17">
-        <v>0.786749463463863</v>
+        <v>1.033278602530911</v>
       </c>
       <c r="E17">
-        <v>0.7925692380018157</v>
+        <v>1.037621762488688</v>
       </c>
       <c r="F17">
-        <v>0.7378319582113144</v>
+        <v>1.042720768816784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9857058027750684</v>
+        <v>1.025149626980564</v>
       </c>
       <c r="J17">
-        <v>0.8121509715178017</v>
+        <v>1.036585448603547</v>
       </c>
       <c r="K17">
-        <v>0.8064418457772584</v>
+        <v>1.036653954486094</v>
       </c>
       <c r="L17">
-        <v>0.8120630898649872</v>
+        <v>1.040981960658647</v>
       </c>
       <c r="M17">
-        <v>0.7593701080137888</v>
+        <v>1.046063353236726</v>
       </c>
       <c r="N17">
-        <v>0.9411109628323512</v>
+        <v>1.016002473680908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7705569307006405</v>
+        <v>1.030955880926487</v>
       </c>
       <c r="D18">
-        <v>0.786749463463863</v>
+        <v>1.033848490300784</v>
       </c>
       <c r="E18">
-        <v>0.7925692380018157</v>
+        <v>1.038167949459907</v>
       </c>
       <c r="F18">
-        <v>0.7378319582113144</v>
+        <v>1.043347246724527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9857058027750684</v>
+        <v>1.025227313404832</v>
       </c>
       <c r="J18">
-        <v>0.8121509715178017</v>
+        <v>1.03709217141581</v>
       </c>
       <c r="K18">
-        <v>0.8064418457772584</v>
+        <v>1.037179840529026</v>
       </c>
       <c r="L18">
-        <v>0.8120630898649872</v>
+        <v>1.041484445483011</v>
       </c>
       <c r="M18">
-        <v>0.7593701080137888</v>
+        <v>1.046646109878099</v>
       </c>
       <c r="N18">
-        <v>0.9411109628323512</v>
+        <v>1.016171426995517</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7705569307006405</v>
+        <v>1.031156684425068</v>
       </c>
       <c r="D19">
-        <v>0.786749463463863</v>
+        <v>1.034042408241668</v>
       </c>
       <c r="E19">
-        <v>0.7925692380018157</v>
+        <v>1.038353751913196</v>
       </c>
       <c r="F19">
-        <v>0.7378319582113144</v>
+        <v>1.043560235440894</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9857058027750684</v>
+        <v>1.025253570021934</v>
       </c>
       <c r="J19">
-        <v>0.8121509715178017</v>
+        <v>1.037264548621066</v>
       </c>
       <c r="K19">
-        <v>0.8064418457772584</v>
+        <v>1.037358751944913</v>
       </c>
       <c r="L19">
-        <v>0.8120630898649872</v>
+        <v>1.041655343016001</v>
       </c>
       <c r="M19">
-        <v>0.7593701080137888</v>
+        <v>1.046844189481906</v>
       </c>
       <c r="N19">
-        <v>0.9411109628323512</v>
+        <v>1.016228898756906</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7705569307006405</v>
+        <v>1.030257024385875</v>
       </c>
       <c r="D20">
-        <v>0.786749463463863</v>
+        <v>1.033173585666706</v>
       </c>
       <c r="E20">
-        <v>0.7925692380018157</v>
+        <v>1.03752108899719</v>
       </c>
       <c r="F20">
-        <v>0.7378319582113144</v>
+        <v>1.04260523554627</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9857058027750684</v>
+        <v>1.025135226607334</v>
       </c>
       <c r="J20">
-        <v>0.8121509715178017</v>
+        <v>1.036492049029094</v>
       </c>
       <c r="K20">
-        <v>0.8064418457772584</v>
+        <v>1.036557029984263</v>
       </c>
       <c r="L20">
-        <v>0.8120630898649872</v>
+        <v>1.0408893241651</v>
       </c>
       <c r="M20">
-        <v>0.7593701080137888</v>
+        <v>1.045955861597446</v>
       </c>
       <c r="N20">
-        <v>0.9411109628323512</v>
+        <v>1.015971330707055</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7705569307006405</v>
+        <v>1.027303160276372</v>
       </c>
       <c r="D21">
-        <v>0.786749463463863</v>
+        <v>1.030320762966665</v>
       </c>
       <c r="E21">
-        <v>0.7925692380018157</v>
+        <v>1.034783452124751</v>
       </c>
       <c r="F21">
-        <v>0.7378319582113144</v>
+        <v>1.03945647671229</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9857058027750684</v>
+        <v>1.024734242983458</v>
       </c>
       <c r="J21">
-        <v>0.8121509715178017</v>
+        <v>1.033952196647944</v>
       </c>
       <c r="K21">
-        <v>0.8064418457772584</v>
+        <v>1.033922165975773</v>
       </c>
       <c r="L21">
-        <v>0.8120630898649872</v>
+        <v>1.038368123648726</v>
       </c>
       <c r="M21">
-        <v>0.7593701080137888</v>
+        <v>1.043023798520807</v>
       </c>
       <c r="N21">
-        <v>0.9411109628323512</v>
+        <v>1.015124290471257</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7705569307006405</v>
+        <v>1.025423045780144</v>
       </c>
       <c r="D22">
-        <v>0.786749463463863</v>
+        <v>1.028504804245656</v>
       </c>
       <c r="E22">
-        <v>0.7925692380018157</v>
+        <v>1.033038086425618</v>
       </c>
       <c r="F22">
-        <v>0.7378319582113144</v>
+        <v>1.037442152470991</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9857058027750684</v>
+        <v>1.024469520953183</v>
       </c>
       <c r="J22">
-        <v>0.8121509715178017</v>
+        <v>1.032332910412202</v>
       </c>
       <c r="K22">
-        <v>0.8064418457772584</v>
+        <v>1.03224312486959</v>
       </c>
       <c r="L22">
-        <v>0.8120630898649872</v>
+        <v>1.036758688852479</v>
       </c>
       <c r="M22">
-        <v>0.7593701080137888</v>
+        <v>1.041145706328527</v>
       </c>
       <c r="N22">
-        <v>0.9411109628323512</v>
+        <v>1.014584107738292</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7705569307006405</v>
+        <v>1.026421946528161</v>
       </c>
       <c r="D23">
-        <v>0.786749463463863</v>
+        <v>1.029469633742476</v>
       </c>
       <c r="E23">
-        <v>0.7925692380018157</v>
+        <v>1.0339656672844</v>
       </c>
       <c r="F23">
-        <v>0.7378319582113144</v>
+        <v>1.038513319371676</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9857058027750684</v>
+        <v>1.024611060964565</v>
       </c>
       <c r="J23">
-        <v>0.8121509715178017</v>
+        <v>1.033193487533395</v>
       </c>
       <c r="K23">
-        <v>0.8064418457772584</v>
+        <v>1.033135381608058</v>
       </c>
       <c r="L23">
-        <v>0.8120630898649872</v>
+        <v>1.03761422285513</v>
       </c>
       <c r="M23">
-        <v>0.7593701080137888</v>
+        <v>1.042144653059414</v>
       </c>
       <c r="N23">
-        <v>0.9411109628323512</v>
+        <v>1.014871204495252</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7705569307006405</v>
+        <v>1.03030616801726</v>
       </c>
       <c r="D24">
-        <v>0.786749463463863</v>
+        <v>1.033221045597856</v>
       </c>
       <c r="E24">
-        <v>0.7925692380018157</v>
+        <v>1.03756658696772</v>
       </c>
       <c r="F24">
-        <v>0.7378319582113144</v>
+        <v>1.042657451506902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9857058027750684</v>
+        <v>1.025141737765313</v>
       </c>
       <c r="J24">
-        <v>0.8121509715178017</v>
+        <v>1.036534259660351</v>
       </c>
       <c r="K24">
-        <v>0.8064418457772584</v>
+        <v>1.036600833378792</v>
       </c>
       <c r="L24">
-        <v>0.8120630898649872</v>
+        <v>1.040931190625763</v>
       </c>
       <c r="M24">
-        <v>0.7593701080137888</v>
+        <v>1.046004443911444</v>
       </c>
       <c r="N24">
-        <v>0.9411109628323512</v>
+        <v>1.015985405390486</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7705569307006405</v>
+        <v>1.034718259701583</v>
       </c>
       <c r="D25">
-        <v>0.786749463463863</v>
+        <v>1.037481590897951</v>
       </c>
       <c r="E25">
-        <v>0.7925692380018157</v>
+        <v>1.041644593787391</v>
       </c>
       <c r="F25">
-        <v>0.7378319582113144</v>
+        <v>1.047321536951384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9857058027750684</v>
+        <v>1.025703683860893</v>
       </c>
       <c r="J25">
-        <v>0.8121509715178017</v>
+        <v>1.040317585393604</v>
       </c>
       <c r="K25">
-        <v>0.8064418457772584</v>
+        <v>1.040528844780276</v>
       </c>
       <c r="L25">
-        <v>0.8120630898649872</v>
+        <v>1.044678867751517</v>
       </c>
       <c r="M25">
-        <v>0.7593701080137888</v>
+        <v>1.05033829216949</v>
       </c>
       <c r="N25">
-        <v>0.9411109628323512</v>
+        <v>1.017246552536839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038164951147029</v>
+        <v>0.9147781369476463</v>
       </c>
       <c r="D2">
-        <v>1.040809318403496</v>
+        <v>0.9241872808703774</v>
       </c>
       <c r="E2">
-        <v>1.044820413392423</v>
+        <v>0.9315390486989107</v>
       </c>
       <c r="F2">
-        <v>1.050930401740804</v>
+        <v>0.9174762599459922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026109458634859</v>
+        <v>1.027552838777055</v>
       </c>
       <c r="J2">
-        <v>1.043263872156114</v>
+        <v>0.9398452018126822</v>
       </c>
       <c r="K2">
-        <v>1.043590614427709</v>
+        <v>0.9368146164333697</v>
       </c>
       <c r="L2">
-        <v>1.047590388517168</v>
+        <v>0.9440423980108797</v>
       </c>
       <c r="M2">
-        <v>1.053683312125302</v>
+        <v>0.9302190208534244</v>
       </c>
       <c r="N2">
-        <v>1.018228144688219</v>
+        <v>0.9836280257771922</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040627658789585</v>
+        <v>0.9344435877294036</v>
       </c>
       <c r="D3">
-        <v>1.043186676703034</v>
+        <v>0.9428937019243343</v>
       </c>
       <c r="E3">
-        <v>1.047083830186833</v>
+        <v>0.9500902828667392</v>
       </c>
       <c r="F3">
-        <v>1.053488880866137</v>
+        <v>0.9403958663118536</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02637992601388</v>
+        <v>1.03271377827727</v>
       </c>
       <c r="J3">
-        <v>1.045363680007396</v>
+        <v>0.9568962427247697</v>
       </c>
       <c r="K3">
-        <v>1.045774358955608</v>
+        <v>0.9543134616417639</v>
       </c>
       <c r="L3">
-        <v>1.049661339990159</v>
+        <v>0.9614042751224516</v>
       </c>
       <c r="M3">
-        <v>1.056049848430944</v>
+        <v>0.9518528178537523</v>
       </c>
       <c r="N3">
-        <v>1.018927408508906</v>
+        <v>0.9893274860652059</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042203379657983</v>
+        <v>0.9458421269084677</v>
       </c>
       <c r="D4">
-        <v>1.044707622238164</v>
+        <v>0.9537360848456736</v>
       </c>
       <c r="E4">
-        <v>1.048529366801978</v>
+        <v>0.9608053412781029</v>
       </c>
       <c r="F4">
-        <v>1.055116559133274</v>
+        <v>0.9535277961655904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026543888854601</v>
+        <v>1.035615459093413</v>
       </c>
       <c r="J4">
-        <v>1.046704720390504</v>
+        <v>0.9667405388747281</v>
       </c>
       <c r="K4">
-        <v>1.047169763879089</v>
+        <v>0.9644269205512209</v>
       </c>
       <c r="L4">
-        <v>1.050982053555573</v>
+        <v>0.9714010198052199</v>
       </c>
       <c r="M4">
-        <v>1.057553122242829</v>
+        <v>0.9642214625097486</v>
       </c>
       <c r="N4">
-        <v>1.019373846371572</v>
+        <v>0.9926190315583607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042861638184914</v>
+        <v>0.9503789684743159</v>
       </c>
       <c r="D5">
-        <v>1.045342957738133</v>
+        <v>0.9580515363160158</v>
       </c>
       <c r="E5">
-        <v>1.049132598382612</v>
+        <v>0.9650621954128826</v>
       </c>
       <c r="F5">
-        <v>1.05579428485791</v>
+        <v>0.9587225505933447</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026610191799708</v>
+        <v>1.036749508422075</v>
       </c>
       <c r="J5">
-        <v>1.04726434375271</v>
+        <v>0.9706504012656885</v>
       </c>
       <c r="K5">
-        <v>1.047752256254797</v>
+        <v>0.9684459829179136</v>
       </c>
       <c r="L5">
-        <v>1.051532737615271</v>
+        <v>0.975365695391241</v>
       </c>
       <c r="M5">
-        <v>1.058178494436439</v>
+        <v>0.9691082202750546</v>
       </c>
       <c r="N5">
-        <v>1.019560112016507</v>
+        <v>0.9939264648398287</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042971920458508</v>
+        <v>0.9511271698799819</v>
       </c>
       <c r="D6">
-        <v>1.045449397162436</v>
+        <v>0.958763225436039</v>
       </c>
       <c r="E6">
-        <v>1.049233623853265</v>
+        <v>0.9657637777432914</v>
       </c>
       <c r="F6">
-        <v>1.055907697043013</v>
+        <v>0.9595774711900493</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02662117079665</v>
+        <v>1.036935314237308</v>
       </c>
       <c r="J6">
-        <v>1.047358065927589</v>
+        <v>0.9712947322043674</v>
       </c>
       <c r="K6">
-        <v>1.047849819117854</v>
+        <v>0.9691084392216546</v>
       </c>
       <c r="L6">
-        <v>1.051624935804155</v>
+        <v>0.9760187380493536</v>
       </c>
       <c r="M6">
-        <v>1.058283112931762</v>
+        <v>0.9699121027311511</v>
       </c>
       <c r="N6">
-        <v>1.019591304529406</v>
+        <v>0.9941419299953795</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042212191625282</v>
+        <v>0.9459036848912434</v>
       </c>
       <c r="D7">
-        <v>1.044716127500807</v>
+        <v>0.9537946389996708</v>
       </c>
       <c r="E7">
-        <v>1.048537444669604</v>
+        <v>0.9608631309907686</v>
       </c>
       <c r="F7">
-        <v>1.055125640529438</v>
+        <v>0.9535984043969418</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026544785097209</v>
+        <v>1.035630929516237</v>
       </c>
       <c r="J7">
-        <v>1.046712214305433</v>
+        <v>0.9667936222064707</v>
       </c>
       <c r="K7">
-        <v>1.047177563312967</v>
+        <v>0.9644814775236724</v>
       </c>
       <c r="L7">
-        <v>1.050989429568031</v>
+        <v>0.9714548695418967</v>
       </c>
       <c r="M7">
-        <v>1.057561504306787</v>
+        <v>0.9642879083819252</v>
       </c>
       <c r="N7">
-        <v>1.019376340793643</v>
+        <v>0.9926367818962618</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039000979271745</v>
+        <v>0.9217450474274821</v>
       </c>
       <c r="D8">
-        <v>1.041616406692889</v>
+        <v>0.9308145399838259</v>
       </c>
       <c r="E8">
-        <v>1.045589343048241</v>
+        <v>0.9381204882358635</v>
       </c>
       <c r="F8">
-        <v>1.051800883005747</v>
+        <v>0.925633763360539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026203162998321</v>
+        <v>1.029401751088484</v>
       </c>
       <c r="J8">
-        <v>1.043977222142336</v>
+        <v>0.9458953322788891</v>
       </c>
       <c r="K8">
-        <v>1.044332321518875</v>
+        <v>0.9430210655831444</v>
       </c>
       <c r="L8">
-        <v>1.048294330428125</v>
+        <v>0.9502094498082164</v>
       </c>
       <c r="M8">
-        <v>1.054488964790887</v>
+        <v>0.9379251025071342</v>
       </c>
       <c r="N8">
-        <v>1.018465730105606</v>
+        <v>0.9856500244934945</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033201716605394</v>
+        <v>0.8635889595172073</v>
       </c>
       <c r="D9">
-        <v>1.036017226497309</v>
+        <v>0.8754830843256849</v>
       </c>
       <c r="E9">
-        <v>1.040244428151594</v>
+        <v>0.8828666581168483</v>
       </c>
       <c r="F9">
-        <v>1.045723803230082</v>
+        <v>0.8562538235808529</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025515695887886</v>
+        <v>1.013409892589428</v>
       </c>
       <c r="J9">
-        <v>1.039018604891574</v>
+        <v>0.8950858794248205</v>
       </c>
       <c r="K9">
-        <v>1.039179748080983</v>
+        <v>0.890980899039847</v>
       </c>
       <c r="L9">
-        <v>1.043393221942395</v>
+        <v>0.8981966408139753</v>
       </c>
       <c r="M9">
-        <v>1.048854983608471</v>
+        <v>0.8722070159082846</v>
       </c>
       <c r="N9">
-        <v>1.016813628746163</v>
+        <v>0.9686847835001813</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029234732089296</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D10">
-        <v>1.032186297733158</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E10">
-        <v>1.036574271257841</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F10">
-        <v>1.041517753722413</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024998575290955</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J10">
-        <v>1.035613639160288</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K10">
-        <v>1.035645577783842</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L10">
-        <v>1.040017819282708</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M10">
-        <v>1.044943753162269</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N10">
-        <v>1.015678415063755</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02749160917659</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D11">
-        <v>1.030502774839629</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E11">
-        <v>1.034958273568809</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F11">
-        <v>1.039657949519038</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024760377813686</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J11">
-        <v>1.034114388838487</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K11">
-        <v>1.034090377877333</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L11">
-        <v>1.038529243278389</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M11">
-        <v>1.04321154520811</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N11">
-        <v>1.015178390343789</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026840189214692</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D12">
-        <v>1.029873600928168</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E12">
-        <v>1.034353865616074</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F12">
-        <v>1.038961174984526</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024669724432423</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J12">
-        <v>1.033553643278792</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K12">
-        <v>1.033508847369891</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L12">
-        <v>1.037972138843503</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M12">
-        <v>1.04256216273913</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N12">
-        <v>1.014991346401676</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026980101776533</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D13">
-        <v>1.03000873667378</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E13">
-        <v>1.034483703308304</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F13">
-        <v>1.039110907997642</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024689268885132</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J13">
-        <v>1.033674101638095</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K13">
-        <v>1.033633764334813</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L13">
-        <v>1.038091830893908</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M13">
-        <v>1.042701730015849</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N13">
-        <v>1.015031528019291</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02743784389065</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D14">
-        <v>1.030450846188991</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E14">
-        <v>1.03490839853643</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F14">
-        <v>1.039600476511609</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024752928956501</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J14">
-        <v>1.034068116835472</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K14">
-        <v>1.034042387854416</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L14">
-        <v>1.038483278883165</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M14">
-        <v>1.043157989663534</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N14">
-        <v>1.015162956246298</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027719346923633</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D15">
-        <v>1.030722731910796</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E15">
-        <v>1.035169512818985</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F15">
-        <v>1.039901320851213</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024791862702125</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J15">
-        <v>1.034310367803809</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K15">
-        <v>1.034293639053373</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L15">
-        <v>1.038723905070373</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M15">
-        <v>1.043438311130418</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N15">
-        <v>1.015243758366163</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029349871335767</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D16">
-        <v>1.032297496397267</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E16">
-        <v>1.036680944304857</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F16">
-        <v>1.041640356330642</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025014080218598</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J16">
-        <v>1.035712605240249</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K16">
-        <v>1.035748256791886</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L16">
-        <v>1.040116031778787</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M16">
-        <v>1.045057886864113</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N16">
-        <v>1.015711418237912</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030365766979445</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D17">
-        <v>1.033278602530911</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E17">
-        <v>1.037621762488688</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F17">
-        <v>1.042720768816784</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025149626980564</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J17">
-        <v>1.036585448603547</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K17">
-        <v>1.036653954486094</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L17">
-        <v>1.040981960658647</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M17">
-        <v>1.046063353236726</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N17">
-        <v>1.016002473680908</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030955880926487</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D18">
-        <v>1.033848490300784</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E18">
-        <v>1.038167949459907</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F18">
-        <v>1.043347246724527</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025227313404832</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J18">
-        <v>1.03709217141581</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K18">
-        <v>1.037179840529026</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L18">
-        <v>1.041484445483011</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M18">
-        <v>1.046646109878099</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N18">
-        <v>1.016171426995517</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031156684425068</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D19">
-        <v>1.034042408241668</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E19">
-        <v>1.038353751913196</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F19">
-        <v>1.043560235440894</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025253570021934</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J19">
-        <v>1.037264548621066</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K19">
-        <v>1.037358751944913</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L19">
-        <v>1.041655343016001</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M19">
-        <v>1.046844189481906</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N19">
-        <v>1.016228898756906</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030257024385875</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D20">
-        <v>1.033173585666706</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E20">
-        <v>1.03752108899719</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F20">
-        <v>1.04260523554627</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025135226607334</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J20">
-        <v>1.036492049029094</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K20">
-        <v>1.036557029984263</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L20">
-        <v>1.0408893241651</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M20">
-        <v>1.045955861597446</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N20">
-        <v>1.015971330707055</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027303160276372</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D21">
-        <v>1.030320762966665</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E21">
-        <v>1.034783452124751</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F21">
-        <v>1.03945647671229</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024734242983458</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J21">
-        <v>1.033952196647944</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K21">
-        <v>1.033922165975773</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L21">
-        <v>1.038368123648726</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M21">
-        <v>1.043023798520807</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N21">
-        <v>1.015124290471257</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025423045780144</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D22">
-        <v>1.028504804245656</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E22">
-        <v>1.033038086425618</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F22">
-        <v>1.037442152470991</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024469520953183</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J22">
-        <v>1.032332910412202</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K22">
-        <v>1.03224312486959</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L22">
-        <v>1.036758688852479</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M22">
-        <v>1.041145706328527</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N22">
-        <v>1.014584107738292</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026421946528161</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D23">
-        <v>1.029469633742476</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E23">
-        <v>1.0339656672844</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F23">
-        <v>1.038513319371676</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024611060964565</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J23">
-        <v>1.033193487533395</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K23">
-        <v>1.033135381608058</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L23">
-        <v>1.03761422285513</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M23">
-        <v>1.042144653059414</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N23">
-        <v>1.014871204495252</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03030616801726</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D24">
-        <v>1.033221045597856</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E24">
-        <v>1.03756658696772</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F24">
-        <v>1.042657451506902</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025141737765313</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J24">
-        <v>1.036534259660351</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K24">
-        <v>1.036600833378792</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L24">
-        <v>1.040931190625763</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M24">
-        <v>1.046004443911444</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N24">
-        <v>1.015985405390486</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034718259701583</v>
+        <v>0.7705569307006107</v>
       </c>
       <c r="D25">
-        <v>1.037481590897951</v>
+        <v>0.7867494634638342</v>
       </c>
       <c r="E25">
-        <v>1.041644593787391</v>
+        <v>0.7925692380017867</v>
       </c>
       <c r="F25">
-        <v>1.047321536951384</v>
+        <v>0.7378319582112766</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025703683860893</v>
+        <v>0.9857058027750598</v>
       </c>
       <c r="J25">
-        <v>1.040317585393604</v>
+        <v>0.8121509715177746</v>
       </c>
       <c r="K25">
-        <v>1.040528844780276</v>
+        <v>0.8064418457772305</v>
       </c>
       <c r="L25">
-        <v>1.044678867751517</v>
+        <v>0.8120630898649591</v>
       </c>
       <c r="M25">
-        <v>1.05033829216949</v>
+        <v>0.7593701080137525</v>
       </c>
       <c r="N25">
-        <v>1.017246552536839</v>
+        <v>0.9411109628323422</v>
       </c>
     </row>
   </sheetData>
